--- a/Src/Data/Tables/NpcDefine.xlsx
+++ b/Src/Data/Tables/NpcDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>描述</t>
   </si>
@@ -77,21 +77,21 @@
     <t>Task</t>
   </si>
   <si>
+    <t>多丽丝</t>
+  </si>
+  <si>
+    <t>杂货商人</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>InvokeShop</t>
+  </si>
+  <si>
     <t>埃布尔</t>
   </si>
   <si>
-    <t>杂货商人</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>InvokeShop</t>
-  </si>
-  <si>
-    <t>多丽丝</t>
-  </si>
-  <si>
     <t>副本NPC</t>
   </si>
   <si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>装备NPC</t>
-  </si>
-  <si>
-    <t>InvokeEquipment</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1314,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1466,7 +1463,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
